--- a/PartC.xlsx
+++ b/PartC.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/lubberma_staff_vuw_ac_nz/Documents/MyHDocs/DocumentsRedir/lecturing/MMPA531/Session 4/python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD588640-2414-41BA-91B8-A835388E1BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{BD588640-2414-41BA-91B8-A835388E1BF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FC93B36-DA43-429E-B5E1-7DA40F36C9AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{AA616DFD-E5A7-44DF-972F-32672E878583}"/>
   </bookViews>
   <sheets>
-    <sheet name="Variable description" sheetId="1" r:id="rId1"/>
-    <sheet name="Cleansed dataset" sheetId="2" r:id="rId2"/>
+    <sheet name="Cleansed dataset" sheetId="2" r:id="rId1"/>
+    <sheet name="Variable description" sheetId="1" r:id="rId2"/>
     <sheet name="SolutionStatisticalAnalyses" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Cleansed dataset'!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Cleansed dataset'!$A$1:$Q$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2266,174 +2266,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFC067B-8D93-4CA9-9E90-6A7015F9E079}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="87.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3478BDE-525E-48ED-99D0-E133C240129C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView showOutlineSymbols="0" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -7392,6 +7231,167 @@
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFC067B-8D93-4CA9-9E90-6A7015F9E079}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="87.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
